--- a/crawling/data/yogiyo_홍익대.xlsx
+++ b/crawling/data/yogiyo_홍익대.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6E5EE-DD6B-44BA-8F0A-13EEA0ECE113}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3D072-4BA2-4A1F-B645-B7B17AF62B7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3270" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="치킨" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="분식" sheetId="8" r:id="rId8"/>
     <sheet name="카페디저트" sheetId="9" r:id="rId9"/>
     <sheet name="편의점" sheetId="10" r:id="rId10"/>
+    <sheet name="test" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7454" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8823" uniqueCount="1579">
   <si>
     <t>상호명</t>
   </si>
@@ -3800,6 +3801,984 @@
   </si>
   <si>
     <t>CU-서교타워점</t>
+  </si>
+  <si>
+    <t>store_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/299526/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/셰플리_20200117_Franchise이미지약정서_crop_200x200_DAxQBcK.png</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/387231/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/BHC_20191014_Franchise_crop_200x200_hY0tGRI.jpg</t>
+  </si>
+  <si>
+    <t>BHC-신촌점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/234960/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/롯데리아_20160408_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/261418/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/KFC_20181218_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/236718/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/교촌치킨_20160614_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/228230/</t>
+  </si>
+  <si>
+    <t>BHC-홍대초교점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/230513/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/범벅치킨_20151211_Franchise_crop_200x200.jpeg</t>
+  </si>
+  <si>
+    <t>범벅치킨-신촌점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/243560/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/26338/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/불닭발02_20120524_FoodAD_crop_200x200_135.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/9598/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/또래오래_20151126_Franchise이미지약정서_crop_200x200_89SjZAD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/305354/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/후라이드참잘하는집_20170329_Franchise이미지약정서_crop_200x200.JPG</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/264101/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/굽네치킨_20151119_Franchise이미지약정서_crop_200x200.JPG</t>
+  </si>
+  <si>
+    <t>굽네치킨&amp;피자-서강점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/27409/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/맥시칸치킨_20180326_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/174592/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/네네치킨_20180831_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>네네치킨-서교점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/271670/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/디디치킨_20160615_Franchise이미지약정서_crop_200x200.JPG</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/271879/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/231799/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/두마리치킨순살01_20131128_FoodAD_crop_200x200_gtZpcgH.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/52927/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/237806/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/피자나라치킨공주__20171102_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/282624/</t>
+  </si>
+  <si>
+    <t>굽네치킨&amp;피자-북아현점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/266230/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/지코바치킨_20190725_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/59857/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/피자오래-성산점_20171220_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/287458/</t>
+  </si>
+  <si>
+    <t>굽네치킨&amp;피자-연남점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/366742/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/처갓집치킨_20151228_Franchise이미지약정서_crop_200x200_ZaH9UvS.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/42996/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/페리카나_20190430_Franchise_crop_200x200.png</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/269064/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/닭꾸버-서울1호신촌점_20180308_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/265036/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/컬투치킨_20180309_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/317517/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/걸작떡볶이_20180209_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/341351/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/치킨플러스_20190528_Franchise_crop_200x200.png</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/332029/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/233371/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/호식이두마리치킨_20180212_Franchise이미지약정서_crop_200x200.PNG</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/26993/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/254713/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/BBQ_20160928_Franchise이미지약정서_crop_200x200_AxtSe6b.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/934/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/치즈바이트피자03_20120523_Foodon_crop.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/232706/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/249635/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190724_249635_명품임실치즈피자-신촌점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/267168/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/364127/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190917_364127_청년치킨-서교점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/284896/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/푸라닭_20170831_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/228153/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/327191/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/342189/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/332559/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/322251/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/멕시카나치킨_20191128_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/336738/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/두마리치킨순살01_20131128_FoodAD_crop_200x200_WTwLhN3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/26733/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드03_20120524_FoodAD_crop_200x200_410.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/230213/</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/318784/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/237390/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/335674/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/49628/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/249634/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190724_249634_명품임실치즈피자-마포점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/250294/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/보르도24시피자치킨-홍대점_20180420_가맹로고이미지약정서_crop_200x200.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/336855/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190618_336855_맛있는파파닭-신촌직영점_대표사진_200X200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/121280/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/268879/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/330851/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190624_330851_마포깐풍기n찜닭_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/283251/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190702_283251_프라이드킹_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/335272/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/295670/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/노랑통닭_20161202_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/233009/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/닭볶음탕04_20131128_FoodAD_crop_200x200_BXTrB4q.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/309104/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/365286/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190926_365286_치킨얌_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/335069/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/가마로강정_20160812_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/293348/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/치킨연구소-신촌직영점_20181004_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/389786/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191119_389786_수원왕갈비통닭n닭강정-마포점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/69524/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨01_20131128_FoodAD_crop_200x200_9d5Y4oQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/248562/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/순수치킨_20171024_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/321918/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190614_321918_네오치킨-염리점_대표사진_200X200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/343452/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190708_343452_떡만치_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/320855/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/떡볶이01_20131128_FoodAD_crop_200x200_xcM00xC.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/301443/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/더블플레이치킨-홍대점_20181130_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/352063/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190801_352063_후라이드참맛있는집-상수점_대표사진_200X200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/302883/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨04_20131128_FoodAD_crop_200x200_pBo0Bnq.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/300120/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/마이마이치킨-홍대현석점_20181119_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/356896/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/413177/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/339678/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/닭강정01_20131128_FoodAD_crop_200x200_FCR2F2k.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/342450/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190712_342450_치킨사냥-망원점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/332992/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190822_356896_국제시장국제통닭-신촌점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/312798/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/윤s치킨_20190313_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/356185/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190919_356185_치킨먹고팔자피자-송파점_대표사진_200x200_8i5e3e0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/352837/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190805_352837_치킨선생-마포점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/243474/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨순살02_20131128_FoodAD_crop_200x200_Vw9JdXi.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/341781/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191008_341781_몬스터한마리반치킨-신촌점_대표사진_200x200_OEcdzOE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/324060/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/누나홀닭-망원역점_20190425_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/14233/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191203_14233_피자조팩토리_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/342025/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/생활맥주_20190823_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/314163/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/파자마피자치킨_20190409_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/305294/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/레트로켄터키_20190104_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/404138/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/397860/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/오태식해바라기치킨_20190211_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/338730/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190618_338730_치킹맨_대표사진_200X200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/399382/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191210_399382_피치떡-마포점_대표사진_200x200_aYd3rWr.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/332381/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/동네아저씨치킨-신촌점_20190530_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/398855/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190809_DHK촬영_닭강정_Top01_300x300_yffsEaQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/403428/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200109_403428_씽씽치킨-신수점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/326676/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨다리02_20131128_FoodAD_crop_200x200_p6j7H64.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/361642/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/양념치킨순살02_20131128_FoodAD_crop_200x200_8RD4bFg.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/346864/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191129_346864_뉴욕비치킨플래터_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/368820/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_한마리후라이드치킨_Side01_300x300_ZeB7JiL.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/407438/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200108_407438_닭갉젉_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378360/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191118_378360_배터지는파닭-신촌점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/373800/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191014_373800_곱깨비-연남본점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/278445/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/두마리치킨01_20131128_FoodAD_crop_200x200_ksKGLdD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/310477/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨02_20131128_FoodAD_crop_200x200_MDb2Uby.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382770/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_382770_더쉐프리조또n필라프_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/272251/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191014_272251_담백한꼬꼬순이치킨_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/301039/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/상수동치맥_20181127_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/387547/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191115_387547_아닭치킨_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/399376/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191210_399376_아빠맘치킨-마포점_대표사진_200x200_CKGle2J.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416540/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200203_416540_마포닭강정_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/314160/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/파자마금룡치킨앤떡볶이_20190409_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382765/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_382765_더쉐프파스타_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/367180/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/국물닭발_20141121_요기요자체제작_crop_200x200_CTa98Sl.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/417561/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200130_417561_와우골드킹365_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/357956/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/바베큐양념치킨01_20131128_FoodAD_crop_200x200_GQnGMzJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382029/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_한마리후라이드치킨_Side01_300x300_NLm7roO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/407515/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191227_407515_The청춘키친-홍대점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/407517/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191227_407517_강정시키면통닭까지-홍대점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/348015/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/콤비네이션피자03_20131128_FoodAD_crop_200x200_u3DRTR8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/385930/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/위드치킨_20191104_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/361639/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190903_361639_치폴레옹-연대신촌점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/407338/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200106_407338_공덕옛날통닭_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382762/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_382762_더쉐프_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/385642/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191114_385642_샌드럴파크-합정점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416541/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200203_416541_태극닭강정_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/410728/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374682/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_보쌈_Top01_300x300_sYwUNo8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378514/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200123_378514_봉구통닭n떡볶이-망원점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/394203/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191129_394203_닭스타-신촌직영점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/367181/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/375052/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191014_375052_호또치킨-망원점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/398857/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190809_DHK촬영_닭강정_Side02_300x300_eMXwR24.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/398859/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190809_DHK촬영_닭강정_Side01_300x300_ZLP3PJR.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378496/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200122_378496_봉구통닭-망원점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/399379/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191210_399379_한신떡볶이-마포점_대표사진_200x200_BflmKVF.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/289029/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/바베큐치킨01_20131128_FoodAD_crop_200x200_SRieizp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/418413/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_닭볶음탕_Top01_300x300_rK4mhL8.jpg</t>
+  </si>
+  <si>
+    <t>맛부심닭도리탕</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382777/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_382777_맛없으면환불해주는파스타_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382785/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_382785_1인혼파스타_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/420111/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191029_DHK촬영_큐브스테이크_Side03_300x300_gZPFNyg.jpg</t>
+  </si>
+  <si>
+    <t>고메스테이크-서교점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/420112/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191025_DHK촬영합성_소불고기덮밥-제육덮밥_Top01_300x300_flSpJ5E.jpg</t>
+  </si>
+  <si>
+    <t>한끼맛담-서교점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/373804/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374679/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191015_374679_홍대자연족발_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374681/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191015_374681_홍대자연보쌈_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374684/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191015_374684_홍대자연족발세트_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374680/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_한마리후라이드치킨_Side01_300x300_e4RqUAB.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374953/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영합성_떡볶이-순살후라이드치킨-양념치킨순살_Top01_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374954/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_후라이드파닭_Side02_300x300_7mGddgH.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374955/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_양념치킨다리날개_Top01_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374952/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_순살후라이드치킨_Side01_300x300_vw2NXgy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/373801/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/373802/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/373803/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/375053/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191014_375053_통후추치킨n호또치킨_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378518/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200123_378518_순살봉구통닭-망원점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378523/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200123_378523_맵닭봉구통닭-망원점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378525/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200123_378525_치맥은봉구통닭-망원점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416069/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/팔땡치킨_20200120_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/355444/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190813_355444_상수닭_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/300504/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨01_20131128_FoodAD_crop_200x200_7JrmYa2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/405562/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191112_DHK촬영합성_양념치킨-한마리후라이드치킨_Top02_300x300_Bmw3Npt.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/405563/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191112_DHK촬영합성_한마리후라이드치킨-후라이드파닭순살_Top01_300x300_Rkg1UtW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/277709/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨11_20131128_FoodAD_crop_200x200_iS8t3tl.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/409535/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_날개후라이드치킨_Side03_300x300_ezU8Rez.jpg</t>
+  </si>
+  <si>
+    <t>cat_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍익대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4148,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6730,11 +7709,4987 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ECB74A-DD6C-423B-972A-B77E5E44E66E}">
+  <dimension ref="A1:I171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>5275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>3189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>2965</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>2599</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2447</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>2386</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>2326</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2222</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1931</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>1873</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>1556</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>1352</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>1306</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1180</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1150</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>1031</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D18" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>1031</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>930</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>913</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>888</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>883</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>868</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>842</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>808</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>801</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>746</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>742</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>689</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>649</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>638</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>623</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>618</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>569</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>565</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>533</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>531</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>530</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>503</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>498</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>491</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>476</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>464</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>452</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>435</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>385</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>364</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G48">
+        <v>356</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>354</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>343</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>307</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>306</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>304</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>300</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>299</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>268</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>262</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>255</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>246</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>244</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <v>241</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>223</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>194</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>194</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>193</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66">
+        <v>167</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G67">
+        <v>163</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <v>157</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>128</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70">
+        <v>124</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>108</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>104</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73">
+        <v>98</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>597</v>
+      </c>
+      <c r="G74">
+        <v>97</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>62</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <v>60</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83">
+        <v>59</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>58</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <v>58</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91">
+        <v>35</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G93">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C102" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" t="s">
+        <v>597</v>
+      </c>
+      <c r="G111">
+        <v>7</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C112" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C114" t="s">
+        <v>155</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C119" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>597</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>421</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C123" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C125" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>61</v>
+      </c>
+      <c r="F125" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C127" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" t="s">
+        <v>49</v>
+      </c>
+      <c r="F133" t="s">
+        <v>152</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C134" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" t="s">
+        <v>61</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" t="s">
+        <v>145</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C137" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>92</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C140" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>61</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C141" t="s">
+        <v>216</v>
+      </c>
+      <c r="D141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C142" t="s">
+        <v>218</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E143" t="s">
+        <v>177</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E144" t="s">
+        <v>100</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C145" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E147" t="s">
+        <v>56</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C148" t="s">
+        <v>185</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E148" t="s">
+        <v>142</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C149" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C150" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E150" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C151" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E151" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C152" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E152" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C153" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153" t="s">
+        <v>421</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E154" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154" t="s">
+        <v>152</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C155" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E155" t="s">
+        <v>49</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C156" t="s">
+        <v>189</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E156" t="s">
+        <v>49</v>
+      </c>
+      <c r="F156" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C157" t="s">
+        <v>188</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E157" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C158" t="s">
+        <v>190</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E158" t="s">
+        <v>142</v>
+      </c>
+      <c r="F158" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E159" t="s">
+        <v>142</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C160" t="s">
+        <v>192</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E160" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C161" t="s">
+        <v>193</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E161" t="s">
+        <v>49</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C162" t="s">
+        <v>194</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E162" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C163" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E163" t="s">
+        <v>61</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C164" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C165" t="s">
+        <v>224</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C167" t="s">
+        <v>219</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E168" t="s">
+        <v>221</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C169" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E169" t="s">
+        <v>221</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C170" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C171" t="s">
+        <v>197</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E171" t="s">
+        <v>142</v>
+      </c>
+      <c r="F171" t="s">
+        <v>551</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC28E0C-126E-4898-A2A9-310E683C1985}">
   <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
@@ -16310,7 +22265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D13FD-8ACC-41C6-9088-0C56C608F348}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/crawling/data/yogiyo_홍익대.xlsx
+++ b/crawling/data/yogiyo_홍익대.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3D072-4BA2-4A1F-B645-B7B17AF62B7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBFA1AE-A248-466F-A7D3-EE50FC976B12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="치킨" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="카페디저트" sheetId="9" r:id="rId9"/>
     <sheet name="편의점" sheetId="10" r:id="rId10"/>
     <sheet name="test" sheetId="11" r:id="rId11"/>
+    <sheet name="test2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8823" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9482" uniqueCount="1735">
   <si>
     <t>상호명</t>
   </si>
@@ -4778,6 +4779,476 @@
   </si>
   <si>
     <t>홍익대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/27841/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_381.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/277521/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/중식01_20131205_foodon_crop_200x200_y82W0tb.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/28157/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/양장피03_20131213_foodon_crop_200x200_wnocptU.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/316664/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/손오공마라탕-서교점_20190412_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/305248/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/홍합짬뽕01_20131128_FoodAD_crop_200x200_MABXsDW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20120524_FoodAD_crop_200x200_510.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/260170/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/타베타이_20171026_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/41901/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/중식02_20131205_foodon_crop_200x200_64.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/344776/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/양꼬치_20160212_요기요자체제작_crop_200x200_zEZqp4S.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/314381/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/홍리마라탕_20190409_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>홍리마라탕</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/255470/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_Yive6p7.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/352799/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면02_20131205_foodon_crop_200x200_EjYvCnf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/334384/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/홍콩반점_20190523_Franchise_crop_200x200.png</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/228068/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/피자탕수육01_20141118_요기요자체제작_crop_200x200_FV4Gakd.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/353800/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/298802/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/244982/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191203_DHK촬영합성_차돌박이짬뽕-탕수육_Top01_300x300_fKvYUWK.jpg</t>
+  </si>
+  <si>
+    <t>짬뽕선생</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/340801/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_Yili9zN.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/362915/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190927_362915_라사천마라탕-홍대점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/11417/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20120524_FoodAD_crop_200x200_51.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/381631/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191104_381631_운남덮밥_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/329570/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/리얼안심찹쌀탕수육_20180123_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/329601/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/신국향_20190516_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/344778/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190902_344778_중국천진만두_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/389116/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191118_389116_홍칠공훠궈n마라탕_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/362927/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190927_362927_라사천마라샹궈전문점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/340808/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/299702/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191203_299702_충칭호마라탕n덮밥_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/260327/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마파두부_Side02_300x300_r9Lgm5n.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/367568/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191203_367568_충칭호마라탕n마라샹궈_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/235844/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_특밥_Side01_300x300_wBgPY18.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/300777/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/호야양꼬치-본점_20181126_가맹로고이미지약정서_crop_200x200.PNG</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/386524/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_수제비짬뽕_Side02_300x300_iTwpv17.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/262142/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/볶음밥02_20131128_FoodAD_crop_200x200_Tcv9tGd.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/379100/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191029_379100_라향각마라탕-서교점_대표사진_200x200_kWfHT6m.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/344779/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190902_344779_마라향기-마포점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/344780/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190902_344780_대륙포차-마포점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/385319/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191111_385319_무궁반점-홍대점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/382355/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_찹쌀탕수육_Side01_300x300_8nzC2vL.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/294675/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_Ly2Fvj2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/402056/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191230_402056_신롱푸-홍대점_대표사진_300x300_YchWkhE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/381633/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_물만두_Top01_300x300_XSG0N5d.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/379896/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_깐풍기_Side01_300x300_DhmGhOj.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/399329/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191014_DHK촬영합성_마라샹궈-마라탕_Top03_300x300_UZCiGsW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/391276/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191212_391276_삼국지마라탕-동교동점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374254/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_고기만두_Side01_300x300_DNvVr2s.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/412513/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200120_412513_소림마라탕-마포점_대표사진_300x300_q8JimQc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/391277/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191212_391277_삼국지꿔바로우-동교동점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/391280/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191212_391280_삼국지마라샹궈-동교동점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416489/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200128_416489_중화가정-홍대점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/370859/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_양장피_Top01_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/384212/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Side02_300x300_KtKFHUm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/398910/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191210_398910_1인청년사천마라탕-신촌점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/344777/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/390436/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_양꼬치_Side04_300x300_8j8ePtp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395433/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_양꼬치_Side01_300x300_lNROxRp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/396132/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191204_396132_브런치n마라샹궈_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/391278/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191212_391278_삼국지마라룽샤-동교동점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/391279/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191212_391279_삼국지마라반-동교동점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/413991/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200117_413991_란콰이진_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/410636/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191216_DHK촬영합성_그린티라떼Hot-카페라떼Hot-카페라떼Ice_Top01_300x300_pPdmUt4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/370867/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_라조기_Top01_300x300_mL9Jsrj.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/370869/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_깐풍기_Top01_300x300_i1cowLX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/370875/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_팔보채_Top01_300x300_gZC3uPH.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/370865/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_삼선짜장_Top01_300x300_T73bgWN.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/400559/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190830_DHK촬영합성_마라샹궈-마라탕_Top01_300x300_nZvubhh.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/400561/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라샹궈_Side02_300x300_IzpLpsK.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/397185/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191211_397185_중화요리마이부웍_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/417819/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200210_417819_피슈마라홍탕-신촌점_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/418673/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마파두부_Side01_300x300_0aq3VRy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395577/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Side02_300x300_WHaPHW8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395578/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395579/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395582/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/395584/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374165/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_마라탕_Top01_300x300_8vJLWvb.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/417807/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200131_417807_오나시짬뽕_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/353564/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/꼬치01_20150326_요기요자체제작_crop_200x200_g9PVkys.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/407396/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/베트남노상식당_20191223_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/413993/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마파두부_Top01_300x300_TsWj8UM.jpg</t>
+  </si>
+  <si>
+    <t>중국집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5127,7 +5598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7711,15 +8182,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ECB74A-DD6C-423B-972A-B77E5E44E66E}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1257</v>
       </c>
@@ -7747,8 +8218,11 @@
       <c r="I1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1264</v>
       </c>
@@ -7776,8 +8250,11 @@
       <c r="I2" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1266</v>
       </c>
@@ -7805,8 +8282,11 @@
       <c r="I3" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1269</v>
       </c>
@@ -7834,8 +8314,11 @@
       <c r="I4" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1271</v>
       </c>
@@ -7863,8 +8346,11 @@
       <c r="I5" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1273</v>
       </c>
@@ -7892,8 +8378,11 @@
       <c r="I6" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1275</v>
       </c>
@@ -7921,8 +8410,11 @@
       <c r="I7" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1277</v>
       </c>
@@ -7950,8 +8442,11 @@
       <c r="I8" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1280</v>
       </c>
@@ -7979,8 +8474,11 @@
       <c r="I9" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1281</v>
       </c>
@@ -8008,8 +8506,11 @@
       <c r="I10" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1283</v>
       </c>
@@ -8037,8 +8538,11 @@
       <c r="I11" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1285</v>
       </c>
@@ -8066,8 +8570,11 @@
       <c r="I12" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1287</v>
       </c>
@@ -8095,8 +8602,11 @@
       <c r="I13" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1290</v>
       </c>
@@ -8124,8 +8634,11 @@
       <c r="I14" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1292</v>
       </c>
@@ -8153,8 +8666,11 @@
       <c r="I15" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1295</v>
       </c>
@@ -8182,8 +8698,11 @@
       <c r="I16" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1297</v>
       </c>
@@ -8211,8 +8730,11 @@
       <c r="I17" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1298</v>
       </c>
@@ -8240,8 +8762,11 @@
       <c r="I18" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1300</v>
       </c>
@@ -8269,8 +8794,11 @@
       <c r="I19" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1301</v>
       </c>
@@ -8298,8 +8826,11 @@
       <c r="I20" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1303</v>
       </c>
@@ -8327,8 +8858,11 @@
       <c r="I21" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1305</v>
       </c>
@@ -8356,8 +8890,11 @@
       <c r="I22" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1307</v>
       </c>
@@ -8385,8 +8922,11 @@
       <c r="I23" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1309</v>
       </c>
@@ -8414,8 +8954,11 @@
       <c r="I24" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1311</v>
       </c>
@@ -8443,8 +8986,11 @@
       <c r="I25" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1313</v>
       </c>
@@ -8472,8 +9018,11 @@
       <c r="I26" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1315</v>
       </c>
@@ -8501,8 +9050,11 @@
       <c r="I27" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1317</v>
       </c>
@@ -8530,8 +9082,11 @@
       <c r="I28" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1319</v>
       </c>
@@ -8559,8 +9114,11 @@
       <c r="I29" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1321</v>
       </c>
@@ -8588,8 +9146,11 @@
       <c r="I30" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1323</v>
       </c>
@@ -8617,8 +9178,11 @@
       <c r="I31" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1324</v>
       </c>
@@ -8646,8 +9210,11 @@
       <c r="I32" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1326</v>
       </c>
@@ -8675,8 +9242,11 @@
       <c r="I33" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1327</v>
       </c>
@@ -8704,8 +9274,11 @@
       <c r="I34" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1329</v>
       </c>
@@ -8733,8 +9306,11 @@
       <c r="I35" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1331</v>
       </c>
@@ -8762,8 +9338,11 @@
       <c r="I36" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1332</v>
       </c>
@@ -8791,8 +9370,11 @@
       <c r="I37" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1334</v>
       </c>
@@ -8820,8 +9402,11 @@
       <c r="I38" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1335</v>
       </c>
@@ -8849,8 +9434,11 @@
       <c r="I39" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1337</v>
       </c>
@@ -8878,8 +9466,11 @@
       <c r="I40" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1339</v>
       </c>
@@ -8907,8 +9498,11 @@
       <c r="I41" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1340</v>
       </c>
@@ -8936,8 +9530,11 @@
       <c r="I42" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1341</v>
       </c>
@@ -8965,8 +9562,11 @@
       <c r="I43" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1342</v>
       </c>
@@ -8994,8 +9594,11 @@
       <c r="I44" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1343</v>
       </c>
@@ -9023,8 +9626,11 @@
       <c r="I45" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1345</v>
       </c>
@@ -9052,8 +9658,11 @@
       <c r="I46" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1347</v>
       </c>
@@ -9081,8 +9690,11 @@
       <c r="I47" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1349</v>
       </c>
@@ -9110,8 +9722,11 @@
       <c r="I48" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1351</v>
       </c>
@@ -9139,8 +9754,11 @@
       <c r="I49" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1352</v>
       </c>
@@ -9168,8 +9786,11 @@
       <c r="I50" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1353</v>
       </c>
@@ -9197,8 +9818,11 @@
       <c r="I51" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1354</v>
       </c>
@@ -9226,8 +9850,11 @@
       <c r="I52" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1266</v>
       </c>
@@ -9255,8 +9882,11 @@
       <c r="I53" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1355</v>
       </c>
@@ -9284,8 +9914,11 @@
       <c r="I54" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1357</v>
       </c>
@@ -9313,8 +9946,11 @@
       <c r="I55" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1359</v>
       </c>
@@ -9342,8 +9978,11 @@
       <c r="I56" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1361</v>
       </c>
@@ -9371,8 +10010,11 @@
       <c r="I57" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1362</v>
       </c>
@@ -9400,8 +10042,11 @@
       <c r="I58" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1363</v>
       </c>
@@ -9429,8 +10074,11 @@
       <c r="I59" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1365</v>
       </c>
@@ -9458,8 +10106,11 @@
       <c r="I60" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1367</v>
       </c>
@@ -9487,8 +10138,11 @@
       <c r="I61" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1368</v>
       </c>
@@ -9516,8 +10170,11 @@
       <c r="I62" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1370</v>
       </c>
@@ -9545,8 +10202,11 @@
       <c r="I63" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1372</v>
       </c>
@@ -9574,8 +10234,11 @@
       <c r="I64" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1373</v>
       </c>
@@ -9603,8 +10266,11 @@
       <c r="I65" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1375</v>
       </c>
@@ -9632,8 +10298,11 @@
       <c r="I66" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1377</v>
       </c>
@@ -9661,8 +10330,11 @@
       <c r="I67" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1379</v>
       </c>
@@ -9690,8 +10362,11 @@
       <c r="I68" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1381</v>
       </c>
@@ -9719,8 +10394,11 @@
       <c r="I69" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1383</v>
       </c>
@@ -9748,8 +10426,11 @@
       <c r="I70" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1372</v>
       </c>
@@ -9777,8 +10458,11 @@
       <c r="I71" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1385</v>
       </c>
@@ -9806,8 +10490,11 @@
       <c r="I72" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1387</v>
       </c>
@@ -9835,8 +10522,11 @@
       <c r="I73" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1389</v>
       </c>
@@ -9864,8 +10554,11 @@
       <c r="I74" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1391</v>
       </c>
@@ -9893,8 +10586,11 @@
       <c r="I75" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1393</v>
       </c>
@@ -9922,8 +10618,11 @@
       <c r="I76" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1395</v>
       </c>
@@ -9951,8 +10650,11 @@
       <c r="I77" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1397</v>
       </c>
@@ -9980,8 +10682,11 @@
       <c r="I78" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1399</v>
       </c>
@@ -10009,8 +10714,11 @@
       <c r="I79" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1400</v>
       </c>
@@ -10038,8 +10746,11 @@
       <c r="I80" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1401</v>
       </c>
@@ -10067,8 +10778,11 @@
       <c r="I81" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1403</v>
       </c>
@@ -10096,8 +10810,11 @@
       <c r="I82" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1405</v>
       </c>
@@ -10125,8 +10842,11 @@
       <c r="I83" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1399</v>
       </c>
@@ -10154,8 +10874,11 @@
       <c r="I84" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1407</v>
       </c>
@@ -10183,8 +10906,11 @@
       <c r="I85" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1409</v>
       </c>
@@ -10212,8 +10938,11 @@
       <c r="I86" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1411</v>
       </c>
@@ -10241,8 +10970,11 @@
       <c r="I87" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1413</v>
       </c>
@@ -10270,8 +11002,11 @@
       <c r="I88" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1415</v>
       </c>
@@ -10299,8 +11034,11 @@
       <c r="I89" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1417</v>
       </c>
@@ -10328,8 +11066,11 @@
       <c r="I90" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1419</v>
       </c>
@@ -10357,8 +11098,11 @@
       <c r="I91" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1421</v>
       </c>
@@ -10386,8 +11130,11 @@
       <c r="I92" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1423</v>
       </c>
@@ -10415,8 +11162,11 @@
       <c r="I93" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1425</v>
       </c>
@@ -10444,8 +11194,11 @@
       <c r="I94" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1427</v>
       </c>
@@ -10473,8 +11226,11 @@
       <c r="I95" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1428</v>
       </c>
@@ -10502,8 +11258,11 @@
       <c r="I96" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1430</v>
       </c>
@@ -10531,8 +11290,11 @@
       <c r="I97" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1432</v>
       </c>
@@ -10560,8 +11322,11 @@
       <c r="I98" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1434</v>
       </c>
@@ -10589,8 +11354,11 @@
       <c r="I99" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1436</v>
       </c>
@@ -10618,8 +11386,11 @@
       <c r="I100" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1438</v>
       </c>
@@ -10647,8 +11418,11 @@
       <c r="I101" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1440</v>
       </c>
@@ -10676,8 +11450,11 @@
       <c r="I102" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1442</v>
       </c>
@@ -10705,8 +11482,11 @@
       <c r="I103" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1444</v>
       </c>
@@ -10734,8 +11514,11 @@
       <c r="I104" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1446</v>
       </c>
@@ -10763,8 +11546,11 @@
       <c r="I105" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1448</v>
       </c>
@@ -10792,8 +11578,11 @@
       <c r="I106" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1450</v>
       </c>
@@ -10821,8 +11610,11 @@
       <c r="I107" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1452</v>
       </c>
@@ -10850,8 +11642,11 @@
       <c r="I108" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1454</v>
       </c>
@@ -10879,8 +11674,11 @@
       <c r="I109" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1456</v>
       </c>
@@ -10908,8 +11706,11 @@
       <c r="I110" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1458</v>
       </c>
@@ -10937,8 +11738,11 @@
       <c r="I111" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1460</v>
       </c>
@@ -10966,8 +11770,11 @@
       <c r="I112" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1462</v>
       </c>
@@ -10995,8 +11802,11 @@
       <c r="I113" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1464</v>
       </c>
@@ -11024,8 +11834,11 @@
       <c r="I114" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1466</v>
       </c>
@@ -11053,8 +11866,11 @@
       <c r="I115" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1468</v>
       </c>
@@ -11082,8 +11898,11 @@
       <c r="I116" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1470</v>
       </c>
@@ -11111,8 +11930,11 @@
       <c r="I117" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1472</v>
       </c>
@@ -11140,8 +11962,11 @@
       <c r="I118" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1474</v>
       </c>
@@ -11169,8 +11994,11 @@
       <c r="I119" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1476</v>
       </c>
@@ -11198,8 +12026,11 @@
       <c r="I120" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1478</v>
       </c>
@@ -11227,8 +12058,11 @@
       <c r="I121" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1480</v>
       </c>
@@ -11256,8 +12090,11 @@
       <c r="I122" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1482</v>
       </c>
@@ -11285,8 +12122,11 @@
       <c r="I123" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1484</v>
       </c>
@@ -11314,8 +12154,11 @@
       <c r="I124" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1486</v>
       </c>
@@ -11343,8 +12186,11 @@
       <c r="I125" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1488</v>
       </c>
@@ -11372,8 +12218,11 @@
       <c r="I126" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1490</v>
       </c>
@@ -11401,8 +12250,11 @@
       <c r="I127" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1492</v>
       </c>
@@ -11430,8 +12282,11 @@
       <c r="I128" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1494</v>
       </c>
@@ -11459,8 +12314,11 @@
       <c r="I129" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1496</v>
       </c>
@@ -11488,8 +12346,11 @@
       <c r="I130" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1498</v>
       </c>
@@ -11517,8 +12378,11 @@
       <c r="I131" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1500</v>
       </c>
@@ -11546,8 +12410,11 @@
       <c r="I132" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1501</v>
       </c>
@@ -11575,8 +12442,11 @@
       <c r="I133" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1503</v>
       </c>
@@ -11604,8 +12474,11 @@
       <c r="I134" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1505</v>
       </c>
@@ -11633,8 +12506,11 @@
       <c r="I135" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1507</v>
       </c>
@@ -11662,8 +12538,11 @@
       <c r="I136" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1508</v>
       </c>
@@ -11691,8 +12570,11 @@
       <c r="I137" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1510</v>
       </c>
@@ -11720,8 +12602,11 @@
       <c r="I138" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1512</v>
       </c>
@@ -11749,8 +12634,11 @@
       <c r="I139" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1514</v>
       </c>
@@ -11778,8 +12666,11 @@
       <c r="I140" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1516</v>
       </c>
@@ -11807,8 +12698,11 @@
       <c r="I141" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1518</v>
       </c>
@@ -11836,8 +12730,11 @@
       <c r="I142" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1520</v>
       </c>
@@ -11865,8 +12762,11 @@
       <c r="I143" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1523</v>
       </c>
@@ -11894,8 +12794,11 @@
       <c r="I144" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1525</v>
       </c>
@@ -11923,8 +12826,11 @@
       <c r="I145" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1527</v>
       </c>
@@ -11952,8 +12858,11 @@
       <c r="I146" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1530</v>
       </c>
@@ -11981,8 +12890,11 @@
       <c r="I147" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1533</v>
       </c>
@@ -12010,8 +12922,11 @@
       <c r="I148" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1534</v>
       </c>
@@ -12039,8 +12954,11 @@
       <c r="I149" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1536</v>
       </c>
@@ -12068,8 +12986,11 @@
       <c r="I150" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1538</v>
       </c>
@@ -12097,8 +13018,11 @@
       <c r="I151" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1540</v>
       </c>
@@ -12126,8 +13050,11 @@
       <c r="I152" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1542</v>
       </c>
@@ -12155,8 +13082,11 @@
       <c r="I153" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1544</v>
       </c>
@@ -12184,8 +13114,11 @@
       <c r="I154" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1546</v>
       </c>
@@ -12213,8 +13146,11 @@
       <c r="I155" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1548</v>
       </c>
@@ -12242,8 +13178,11 @@
       <c r="I156" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1550</v>
       </c>
@@ -12271,8 +13210,11 @@
       <c r="I157" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1550</v>
       </c>
@@ -12300,8 +13242,11 @@
       <c r="I158" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1551</v>
       </c>
@@ -12329,8 +13274,11 @@
       <c r="I159" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1552</v>
       </c>
@@ -12358,8 +13306,11 @@
       <c r="I160" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1553</v>
       </c>
@@ -12387,8 +13338,11 @@
       <c r="I161" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1555</v>
       </c>
@@ -12416,8 +13370,11 @@
       <c r="I162" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1557</v>
       </c>
@@ -12445,8 +13402,11 @@
       <c r="I163" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1559</v>
       </c>
@@ -12474,8 +13434,11 @@
       <c r="I164" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1561</v>
       </c>
@@ -12503,8 +13466,11 @@
       <c r="I165" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1563</v>
       </c>
@@ -12532,8 +13498,11 @@
       <c r="I166" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1565</v>
       </c>
@@ -12561,8 +13530,11 @@
       <c r="I167" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1567</v>
       </c>
@@ -12590,8 +13562,11 @@
       <c r="I168" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1569</v>
       </c>
@@ -12619,8 +13594,11 @@
       <c r="I169" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1571</v>
       </c>
@@ -12648,8 +13626,11 @@
       <c r="I170" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1573</v>
       </c>
@@ -12676,12 +13657,2659 @@
       </c>
       <c r="I171" t="s">
         <v>1578</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4768CB-D402-420F-B32D-408DDA9565A9}">
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>5292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3">
+        <v>2339</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4">
+        <v>1874</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5">
+        <v>1781</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1079</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>787</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>769</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>729</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>676</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>438</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>393</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>358</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>346</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>276</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>194</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>179</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C23" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C28" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C34" t="s">
+        <v>413</v>
+      </c>
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G36">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C37" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>421</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C43" t="s">
+        <v>403</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>551</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>399</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C47" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C51" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C53" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" t="s">
+        <v>369</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>551</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C54" t="s">
+        <v>394</v>
+      </c>
+      <c r="D54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C55" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" t="s">
+        <v>391</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C58" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C60" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C62" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C63" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C65" t="s">
+        <v>365</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C66" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C70" t="s">
+        <v>380</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C72" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C73" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C74" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C76" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E78" t="s">
+        <v>376</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E79" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C80" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14846,8 +18474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3612C169-549D-4AC4-B428-BEEB5B7638BC}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:D82"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
